--- a/docs/Issues Log.xlsx
+++ b/docs/Issues Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GESTIONE_PROCESSO\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GPOI\tournament creator\Tournament-Creator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>N°</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>Completato</t>
+  </si>
+  <si>
+    <t>Difficoltà nel rappresentare l'avanzamento del torneo con l'ERM</t>
+  </si>
+  <si>
+    <t>Massimo Rizzoli</t>
+  </si>
+  <si>
+    <t>Dimitri Malferrari, Massimo Rizzoli, Luca Milano</t>
+  </si>
+  <si>
+    <t>Utilizzo di id numerici per partite e squadre univoci all'interno di un torneo</t>
+  </si>
+  <si>
+    <t>Difficoltà nel caricare cartelle vuote sulla repository github</t>
+  </si>
+  <si>
+    <t>Dimitri Malferrari</t>
+  </si>
+  <si>
+    <t>Aggiungere un file chiamato .keep vuoto</t>
   </si>
 </sst>
 </file>
@@ -381,20 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,29 +447,69 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
-        <v>43171</v>
+        <v>43139</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
@@ -521,6 +582,9 @@
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
